--- a/Risultati/DID_vendite.xlsx
+++ b/Risultati/DID_vendite.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marzio\Documents\GitHub\Advanced_Microeconomics_Project\Risultati\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC804E65-EFC2-4FA0-99EA-56D53E7FC4E5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DDA96A1-B411-4A78-87EF-A855EEC7536D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1545" yWindow="1470" windowWidth="28800" windowHeight="14115" xr2:uid="{BC414773-82C5-4729-B541-46482BE41001}"/>
+    <workbookView xWindow="-240" yWindow="4815" windowWidth="28800" windowHeight="14115" xr2:uid="{BC414773-82C5-4729-B541-46482BE41001}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="22">
   <si>
     <t>Alimentari vs Non Alimentari</t>
   </si>
@@ -97,6 +97,9 @@
   </si>
   <si>
     <t>Alimentari vs Cartoleria</t>
+  </si>
+  <si>
+    <t>Alimentari vs Calzature</t>
   </si>
 </sst>
 </file>
@@ -472,8 +475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AF0107A-9474-4F0E-9C69-A109F7D476AB}">
   <dimension ref="A3:I47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="J50" sqref="J50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -714,7 +717,7 @@
         <v>14</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">

--- a/Risultati/DID_vendite.xlsx
+++ b/Risultati/DID_vendite.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marzio\Documents\GitHub\Advanced_Microeconomics_Project\Risultati\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DDA96A1-B411-4A78-87EF-A855EEC7536D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2AC5000-80C3-4FDE-8D2A-92AB79D939D8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-240" yWindow="4815" windowWidth="28800" windowHeight="14115" xr2:uid="{BC414773-82C5-4729-B541-46482BE41001}"/>
+    <workbookView xWindow="-1965" yWindow="5055" windowWidth="28800" windowHeight="14115" xr2:uid="{BC414773-82C5-4729-B541-46482BE41001}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -476,7 +476,7 @@
   <dimension ref="A3:I47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
